--- a/Stock Barang Template.xlsx
+++ b/Stock Barang Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\GOS_FxApps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6AF707-183C-42C2-91FC-989272A476C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8C6DFB-A48B-4274-81EE-AC75F08805BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,7 +314,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,6 +1551,147 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="30" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="31" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="33" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="34" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="36" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="37" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="38" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,21 +1710,6 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
@@ -1594,132 +1720,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="36" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="37" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="38" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="30" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="31" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="33" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="34" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="44" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3404,7 +3404,7 @@
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="15" customWidth="1"/>
     <col min="2" max="2" width="22" style="22" customWidth="1"/>
@@ -3421,7 +3421,7 @@
     <col min="16" max="16" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="18">
       <c r="A1" s="96" t="s">
         <v>80</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="O1" s="72"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="18">
       <c r="A2" s="96" t="s">
         <v>70</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="73"/>
     </row>
-    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="18">
       <c r="A3" s="89" t="s">
         <v>85</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="73"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="15.75">
       <c r="A4" s="14"/>
       <c r="B4" s="21"/>
       <c r="C4" s="1" t="s">
@@ -3498,7 +3498,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="73"/>
     </row>
-    <row r="5" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="33" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="16.5">
       <c r="A6" s="88"/>
       <c r="B6" s="71"/>
       <c r="C6" s="69"/>
@@ -3568,125 +3568,125 @@
       <c r="R6" s="16"/>
       <c r="T6" s="16"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="T7" s="16"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="T8" s="16"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="T10" s="16"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="T11" s="16"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="R12" s="16"/>
       <c r="T12" s="16"/>
       <c r="AF12">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="T14" s="16"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="T15" s="16"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="T16" s="16"/>
     </row>
-    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="20:20">
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="20:20">
       <c r="T18" s="16"/>
     </row>
-    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="20:20">
       <c r="T19" s="16"/>
     </row>
-    <row r="20" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="20:20">
       <c r="T20" s="16"/>
     </row>
-    <row r="21" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="20:20">
       <c r="T21" s="16"/>
     </row>
-    <row r="22" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="20:20">
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="20:20">
       <c r="T23" s="16"/>
     </row>
-    <row r="24" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="20:20">
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="20:20">
       <c r="T25" s="16"/>
     </row>
-    <row r="26" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="20:20">
       <c r="T26" s="16"/>
     </row>
-    <row r="27" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="20:20">
       <c r="T27" s="16"/>
     </row>
-    <row r="28" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="20:20">
       <c r="T28" s="16"/>
     </row>
-    <row r="29" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="20:20">
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="20:20">
       <c r="T30" s="16"/>
     </row>
-    <row r="31" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="20:20">
       <c r="T31" s="16"/>
     </row>
-    <row r="32" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="20:20">
       <c r="T32" s="16"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="T33" s="16"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="T34" s="16"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="T36" s="16"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="T40" s="16"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="T41" s="16"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="T43" s="16"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="T44" s="16"/>
     </row>
-    <row r="45" spans="1:20" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="81" customFormat="1">
       <c r="A45" s="15"/>
       <c r="B45" s="22"/>
       <c r="C45"/>
@@ -3705,7 +3705,7 @@
       <c r="P45"/>
       <c r="T45" s="90"/>
     </row>
-    <row r="46" spans="1:20" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="81" customFormat="1">
       <c r="A46" s="15"/>
       <c r="B46" s="22"/>
       <c r="C46"/>
@@ -3724,16 +3724,16 @@
       <c r="P46"/>
       <c r="T46" s="90"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="T47" s="16"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="T48" s="16"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="T49" s="16"/>
     </row>
-    <row r="50" spans="1:20" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="81" customFormat="1">
       <c r="A50" s="15"/>
       <c r="B50" s="22"/>
       <c r="C50"/>
@@ -3752,46 +3752,46 @@
       <c r="P50"/>
       <c r="T50" s="90"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="T51" s="16"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="T52" s="16"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="T53" s="16"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="T54" s="16"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="T55" s="16"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="T56" s="16"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="T57" s="16"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="T58" s="16"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="T59" s="16"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="T60" s="16"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="T61" s="16"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="T62" s="16"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="T63" s="16"/>
     </row>
-    <row r="64" spans="1:20" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="81" customFormat="1">
       <c r="A64" s="15"/>
       <c r="B64" s="22"/>
       <c r="C64"/>
@@ -3810,10 +3810,10 @@
       <c r="P64"/>
       <c r="T64" s="90"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="T65" s="16"/>
     </row>
-    <row r="66" spans="1:27" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" s="81" customFormat="1">
       <c r="A66" s="15"/>
       <c r="B66" s="22"/>
       <c r="C66"/>
@@ -3832,73 +3832,73 @@
       <c r="P66"/>
       <c r="T66" s="90"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="T67" s="16"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27">
       <c r="T68" s="16"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27">
       <c r="T69" s="16"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="T70" s="16"/>
       <c r="AA70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27">
       <c r="T71" s="16"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="T72" s="16"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="T73" s="16"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="T74" s="16"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="T75" s="16"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="T76" s="16"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="T77" s="16"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="T78" s="16"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="T79" s="16"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="T80" s="16"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="T81" s="16"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="T82" s="16"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="T83" s="16"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="T84" s="16"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="T85" s="16"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="T86" s="16"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="T87" s="16"/>
     </row>
-    <row r="88" spans="1:20" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="81" customFormat="1">
       <c r="A88" s="15"/>
       <c r="B88" s="22"/>
       <c r="C88"/>
@@ -3917,7 +3917,7 @@
       <c r="P88"/>
       <c r="T88" s="90"/>
     </row>
-    <row r="89" spans="1:20" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="81" customFormat="1">
       <c r="A89" s="15"/>
       <c r="B89" s="22"/>
       <c r="C89"/>
@@ -3936,1387 +3936,1387 @@
       <c r="P89"/>
       <c r="T89" s="90"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="T90" s="16"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="T91" s="16"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="T92" s="16"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="T93" s="16"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="T94" s="16"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="T95" s="16"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="T96" s="16"/>
     </row>
-    <row r="97" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="20:20">
       <c r="T97" s="16"/>
     </row>
-    <row r="98" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="20:20">
       <c r="T98" s="16"/>
     </row>
-    <row r="99" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="20:20">
       <c r="T99" s="16"/>
     </row>
-    <row r="100" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="20:20">
       <c r="T100" s="16"/>
     </row>
-    <row r="101" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="20:20">
       <c r="T101" s="16"/>
     </row>
-    <row r="102" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="20:20">
       <c r="T102" s="16"/>
     </row>
-    <row r="103" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="20:20">
       <c r="T103" s="16"/>
     </row>
-    <row r="104" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="20:20">
       <c r="T104" s="16"/>
     </row>
-    <row r="105" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="20:20">
       <c r="T105" s="16"/>
     </row>
-    <row r="106" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="20:20">
       <c r="T106" s="16"/>
     </row>
-    <row r="107" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="20:20">
       <c r="T107" s="16"/>
     </row>
-    <row r="108" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="20:20">
       <c r="T108" s="16"/>
     </row>
-    <row r="109" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="20:20">
       <c r="T109" s="16"/>
     </row>
-    <row r="110" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="20:20">
       <c r="T110" s="16"/>
     </row>
-    <row r="111" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="20:20">
       <c r="T111" s="16"/>
     </row>
-    <row r="112" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="20:20">
       <c r="T112" s="16"/>
     </row>
-    <row r="113" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="20:20">
       <c r="T113" s="16"/>
     </row>
-    <row r="114" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="20:20">
       <c r="T114" s="16"/>
     </row>
-    <row r="115" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="20:20">
       <c r="T115" s="16"/>
     </row>
-    <row r="116" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="20:20">
       <c r="T116" s="16"/>
     </row>
-    <row r="117" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="20:20">
       <c r="T117" s="16"/>
     </row>
-    <row r="118" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="20:20">
       <c r="T118" s="16"/>
     </row>
-    <row r="119" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="20:20">
       <c r="T119" s="16"/>
     </row>
-    <row r="120" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="20:20">
       <c r="T120" s="16"/>
     </row>
-    <row r="121" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="20:20">
       <c r="T121" s="16"/>
     </row>
-    <row r="122" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="20:20">
       <c r="T122" s="16"/>
     </row>
-    <row r="123" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="20:20">
       <c r="T123" s="16"/>
     </row>
-    <row r="124" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="20:20">
       <c r="T124" s="16"/>
     </row>
-    <row r="125" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="20:20">
       <c r="T125" s="16"/>
     </row>
-    <row r="126" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="20:20">
       <c r="T126" s="16"/>
     </row>
-    <row r="127" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="20:20">
       <c r="T127" s="16"/>
     </row>
-    <row r="128" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="20:20">
       <c r="T128" s="16"/>
     </row>
-    <row r="129" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="20:20">
       <c r="T129" s="16"/>
     </row>
-    <row r="130" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="20:20">
       <c r="T130" s="16"/>
     </row>
-    <row r="131" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="20:20">
       <c r="T131" s="16"/>
     </row>
-    <row r="132" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="20:20">
       <c r="T132" s="16"/>
     </row>
-    <row r="133" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="20:20">
       <c r="T133" s="16"/>
     </row>
-    <row r="134" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="20:20">
       <c r="T134" s="16"/>
     </row>
-    <row r="135" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="20:20">
       <c r="T135" s="16"/>
     </row>
-    <row r="136" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="20:20">
       <c r="T136" s="16"/>
     </row>
-    <row r="137" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="20:20">
       <c r="T137" s="16"/>
     </row>
-    <row r="138" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="20:20">
       <c r="T138" s="16"/>
     </row>
-    <row r="139" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="20:20">
       <c r="T139" s="16"/>
     </row>
-    <row r="140" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="20:20">
       <c r="T140" s="16"/>
     </row>
-    <row r="141" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="20:20">
       <c r="T141" s="16"/>
     </row>
-    <row r="142" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="20:20">
       <c r="T142" s="16"/>
     </row>
-    <row r="143" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="20:20">
       <c r="T143" s="16"/>
     </row>
-    <row r="144" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="20:20">
       <c r="T144" s="16"/>
     </row>
-    <row r="145" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="20:20">
       <c r="T145" s="16"/>
     </row>
-    <row r="146" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="20:20">
       <c r="T146" s="16"/>
     </row>
-    <row r="147" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="20:20">
       <c r="T147" s="16"/>
     </row>
-    <row r="148" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="20:20">
       <c r="T148" s="16"/>
     </row>
-    <row r="149" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="20:20">
       <c r="T149" s="16"/>
     </row>
-    <row r="150" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="20:20">
       <c r="T150" s="16"/>
     </row>
-    <row r="151" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="20:20">
       <c r="T151" s="16"/>
     </row>
-    <row r="152" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="20:20">
       <c r="T152" s="16"/>
     </row>
-    <row r="153" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="20:20">
       <c r="T153" s="16"/>
     </row>
-    <row r="154" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="20:20">
       <c r="T154" s="16"/>
     </row>
-    <row r="155" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="20:20">
       <c r="T155" s="16"/>
     </row>
-    <row r="156" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="20:20">
       <c r="T156" s="16"/>
     </row>
-    <row r="157" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="20:20">
       <c r="T157" s="16"/>
     </row>
-    <row r="158" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="20:20">
       <c r="T158" s="16"/>
     </row>
-    <row r="159" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="20:20">
       <c r="T159" s="16"/>
     </row>
-    <row r="160" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="20:20">
       <c r="T160" s="16"/>
     </row>
-    <row r="161" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="20:20">
       <c r="T161" s="16"/>
     </row>
-    <row r="162" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="20:20">
       <c r="T162" s="16"/>
     </row>
-    <row r="163" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="20:20">
       <c r="T163" s="16"/>
     </row>
-    <row r="164" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="20:20">
       <c r="T164" s="16"/>
     </row>
-    <row r="165" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="20:20">
       <c r="T165" s="16"/>
     </row>
-    <row r="166" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="20:20">
       <c r="T166" s="16"/>
     </row>
-    <row r="167" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="20:20">
       <c r="T167" s="16"/>
     </row>
-    <row r="168" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="20:20">
       <c r="T168" s="16"/>
     </row>
-    <row r="169" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="20:20">
       <c r="T169" s="16"/>
     </row>
-    <row r="170" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="20:20">
       <c r="T170" s="16"/>
     </row>
-    <row r="172" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="20:20">
       <c r="T172" s="16"/>
     </row>
-    <row r="173" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="20:20">
       <c r="T173" s="16"/>
     </row>
-    <row r="174" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="20:20">
       <c r="T174" s="16"/>
     </row>
-    <row r="175" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="20:20">
       <c r="T175" s="16"/>
     </row>
-    <row r="176" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="20:20">
       <c r="T176" s="16"/>
     </row>
-    <row r="177" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="20:20">
       <c r="T177" s="16"/>
     </row>
-    <row r="178" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="20:20">
       <c r="T178" s="16"/>
     </row>
-    <row r="179" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="20:20">
       <c r="T179" s="16"/>
     </row>
-    <row r="180" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="20:20">
       <c r="T180" s="16"/>
     </row>
-    <row r="181" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="20:20">
       <c r="T181" s="16"/>
     </row>
-    <row r="182" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="20:20">
       <c r="T182" s="16"/>
     </row>
-    <row r="183" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="20:20">
       <c r="T183" s="16"/>
     </row>
-    <row r="184" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="20:20">
       <c r="T184" s="16"/>
     </row>
-    <row r="185" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="20:20">
       <c r="T185" s="16"/>
     </row>
-    <row r="186" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="20:20">
       <c r="T186" s="16"/>
     </row>
-    <row r="187" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="20:20">
       <c r="T187" s="16"/>
     </row>
-    <row r="188" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="20:20">
       <c r="T188" s="16"/>
     </row>
-    <row r="189" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="20:20">
       <c r="T189" s="16"/>
     </row>
-    <row r="190" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="20:20">
       <c r="T190" s="16"/>
     </row>
-    <row r="191" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="20:20">
       <c r="T191" s="16"/>
     </row>
-    <row r="192" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="20:20">
       <c r="T192" s="16"/>
     </row>
-    <row r="193" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="20:20">
       <c r="T193" s="16"/>
     </row>
-    <row r="194" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="20:20">
       <c r="T194" s="16"/>
     </row>
-    <row r="195" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="20:20">
       <c r="T195" s="16"/>
     </row>
-    <row r="196" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="20:20">
       <c r="T196" s="16"/>
     </row>
-    <row r="197" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="20:20">
       <c r="T197" s="16"/>
     </row>
-    <row r="198" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="20:20">
       <c r="T198" s="16"/>
     </row>
-    <row r="199" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="20:20">
       <c r="T199" s="16"/>
     </row>
-    <row r="200" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="20:20">
       <c r="T200" s="16"/>
     </row>
-    <row r="201" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="20:20">
       <c r="T201" s="16"/>
     </row>
-    <row r="202" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="20:20">
       <c r="T202" s="16"/>
     </row>
-    <row r="203" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="20:20">
       <c r="T203" s="16"/>
     </row>
-    <row r="204" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="20:20">
       <c r="T204" s="16"/>
     </row>
-    <row r="205" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="20:20">
       <c r="T205" s="16"/>
     </row>
-    <row r="206" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="20:20">
       <c r="T206" s="16"/>
     </row>
-    <row r="207" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="20:20">
       <c r="T207" s="16"/>
     </row>
-    <row r="208" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="20:20">
       <c r="T208" s="16"/>
     </row>
-    <row r="209" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="20:20">
       <c r="T209" s="16"/>
     </row>
-    <row r="210" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="20:20">
       <c r="T210" s="16"/>
     </row>
-    <row r="211" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="20:20">
       <c r="T211" s="16"/>
     </row>
-    <row r="212" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="20:20">
       <c r="T212" s="16"/>
     </row>
-    <row r="213" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="20:20">
       <c r="T213" s="16"/>
     </row>
-    <row r="214" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="20:20">
       <c r="T214" s="16"/>
     </row>
-    <row r="215" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="20:20">
       <c r="T215" s="16"/>
     </row>
-    <row r="216" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="20:20">
       <c r="T216" s="16"/>
     </row>
-    <row r="217" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="20:20">
       <c r="T217" s="16"/>
     </row>
-    <row r="218" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="20:20">
       <c r="T218" s="16"/>
     </row>
-    <row r="219" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="20:20">
       <c r="T219" s="16"/>
     </row>
-    <row r="220" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="20:20">
       <c r="T220" s="16"/>
     </row>
-    <row r="221" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="20:20">
       <c r="T221" s="16"/>
     </row>
-    <row r="222" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="20:20">
       <c r="T222" s="16"/>
     </row>
-    <row r="223" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="20:20">
       <c r="T223" s="16"/>
     </row>
-    <row r="224" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="20:20">
       <c r="T224" s="16"/>
     </row>
-    <row r="225" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="20:20">
       <c r="T225" s="16"/>
     </row>
-    <row r="226" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="20:20">
       <c r="T226" s="16"/>
     </row>
-    <row r="227" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="20:20">
       <c r="T227" s="16"/>
     </row>
-    <row r="228" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="20:20">
       <c r="T228" s="16"/>
     </row>
-    <row r="229" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="20:20">
       <c r="T229" s="16"/>
     </row>
-    <row r="230" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="20:20">
       <c r="T230" s="16"/>
     </row>
-    <row r="231" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="20:20">
       <c r="T231" s="16"/>
     </row>
-    <row r="232" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="20:20">
       <c r="T232" s="16"/>
     </row>
-    <row r="233" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="20:20">
       <c r="T233" s="16"/>
     </row>
-    <row r="234" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="20:20">
       <c r="T234" s="16"/>
     </row>
-    <row r="235" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="20:20">
       <c r="T235" s="16"/>
     </row>
-    <row r="236" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="20:20">
       <c r="T236" s="16"/>
     </row>
-    <row r="237" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="20:20">
       <c r="T237" s="16"/>
     </row>
-    <row r="238" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="20:20">
       <c r="T238" s="16"/>
     </row>
-    <row r="239" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="20:20">
       <c r="T239" s="16"/>
     </row>
-    <row r="240" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="20:20">
       <c r="T240" s="16"/>
     </row>
-    <row r="241" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="20:20">
       <c r="T241" s="16"/>
     </row>
-    <row r="242" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="20:20">
       <c r="T242" s="16"/>
     </row>
-    <row r="243" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="20:20">
       <c r="T243" s="16"/>
     </row>
-    <row r="244" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="20:20">
       <c r="T244" s="16"/>
     </row>
-    <row r="245" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="20:20">
       <c r="T245" s="16"/>
     </row>
-    <row r="246" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="20:20">
       <c r="T246" s="16"/>
     </row>
-    <row r="247" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="20:20">
       <c r="T247" s="16"/>
     </row>
-    <row r="248" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="20:20">
       <c r="T248" s="16"/>
     </row>
-    <row r="249" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="20:20">
       <c r="T249" s="16"/>
     </row>
-    <row r="250" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="20:20">
       <c r="T250" s="16"/>
     </row>
-    <row r="251" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="20:20">
       <c r="T251" s="16"/>
     </row>
-    <row r="252" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="20:20">
       <c r="T252" s="16"/>
     </row>
-    <row r="253" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="20:20">
       <c r="T253" s="16"/>
     </row>
-    <row r="254" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="20:20">
       <c r="T254" s="16"/>
     </row>
-    <row r="255" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="20:20">
       <c r="T255" s="16"/>
     </row>
-    <row r="256" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="20:20">
       <c r="T256" s="16"/>
     </row>
-    <row r="257" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="20:20">
       <c r="T257" s="16"/>
     </row>
-    <row r="258" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="20:20">
       <c r="T258" s="16"/>
     </row>
-    <row r="259" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="20:20">
       <c r="T259" s="16"/>
     </row>
-    <row r="260" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="20:20">
       <c r="T260" s="16"/>
     </row>
-    <row r="261" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="20:20">
       <c r="T261" s="16"/>
     </row>
-    <row r="262" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="20:20">
       <c r="T262" s="16"/>
     </row>
-    <row r="263" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="20:20">
       <c r="T263" s="16"/>
     </row>
-    <row r="264" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="20:20">
       <c r="T264" s="16"/>
     </row>
-    <row r="265" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="20:20">
       <c r="T265" s="16"/>
     </row>
-    <row r="266" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="20:20">
       <c r="T266" s="16"/>
     </row>
-    <row r="267" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="20:20">
       <c r="T267" s="16"/>
     </row>
-    <row r="268" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="20:20">
       <c r="T268" s="16"/>
     </row>
-    <row r="269" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="20:20">
       <c r="T269" s="16"/>
     </row>
-    <row r="270" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="20:20">
       <c r="T270" s="16"/>
     </row>
-    <row r="271" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="20:20">
       <c r="T271" s="16"/>
     </row>
-    <row r="272" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="20:20">
       <c r="T272" s="16"/>
     </row>
-    <row r="273" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="20:20">
       <c r="T273" s="16"/>
     </row>
-    <row r="274" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="20:20">
       <c r="T274" s="16"/>
     </row>
-    <row r="275" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="20:20">
       <c r="T275" s="16"/>
     </row>
-    <row r="276" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="20:20">
       <c r="T276" s="16"/>
     </row>
-    <row r="277" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="20:20">
       <c r="T277" s="16"/>
     </row>
-    <row r="278" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="20:20">
       <c r="T278" s="16"/>
     </row>
-    <row r="279" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="20:20">
       <c r="T279" s="16"/>
     </row>
-    <row r="280" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="20:20">
       <c r="T280" s="16"/>
     </row>
-    <row r="281" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="20:20">
       <c r="T281" s="16"/>
     </row>
-    <row r="282" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="20:20">
       <c r="T282" s="16"/>
     </row>
-    <row r="283" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="20:20">
       <c r="T283" s="16"/>
     </row>
-    <row r="284" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="20:20">
       <c r="T284" s="16"/>
     </row>
-    <row r="285" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="20:20">
       <c r="T285" s="16"/>
     </row>
-    <row r="286" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="20:20">
       <c r="T286" s="16"/>
     </row>
-    <row r="287" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="20:20">
       <c r="T287" s="16"/>
     </row>
-    <row r="288" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="20:20">
       <c r="T288" s="16"/>
     </row>
-    <row r="289" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="20:20">
       <c r="T289" s="16"/>
     </row>
-    <row r="290" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="20:20">
       <c r="T290" s="16"/>
     </row>
-    <row r="291" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="20:20">
       <c r="T291" s="16"/>
     </row>
-    <row r="292" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="20:20">
       <c r="T292" s="16"/>
     </row>
-    <row r="293" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="20:20">
       <c r="T293" s="16"/>
     </row>
-    <row r="294" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="20:20">
       <c r="T294" s="16"/>
     </row>
-    <row r="295" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="20:20">
       <c r="T295" s="16"/>
     </row>
-    <row r="296" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="20:20">
       <c r="T296" s="16"/>
     </row>
-    <row r="297" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="20:20">
       <c r="T297" s="16"/>
     </row>
-    <row r="298" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="20:20">
       <c r="T298" s="16"/>
     </row>
-    <row r="299" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="20:20">
       <c r="T299" s="16"/>
     </row>
-    <row r="300" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="20:20">
       <c r="T300" s="16"/>
     </row>
-    <row r="301" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="20:20">
       <c r="T301" s="16"/>
     </row>
-    <row r="302" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="20:20">
       <c r="T302" s="16"/>
     </row>
-    <row r="303" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="20:20">
       <c r="T303" s="16"/>
     </row>
-    <row r="304" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="20:20">
       <c r="T304" s="16"/>
     </row>
-    <row r="305" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="20:20">
       <c r="T305" s="16"/>
     </row>
-    <row r="306" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="20:20">
       <c r="T306" s="16"/>
     </row>
-    <row r="307" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="20:20">
       <c r="T307" s="16"/>
     </row>
-    <row r="308" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="20:20">
       <c r="T308" s="16"/>
     </row>
-    <row r="309" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="20:20">
       <c r="T309" s="16"/>
     </row>
-    <row r="310" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="20:20">
       <c r="T310" s="16"/>
     </row>
-    <row r="311" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="20:20">
       <c r="T311" s="16"/>
     </row>
-    <row r="312" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="20:20">
       <c r="T312" s="16"/>
     </row>
-    <row r="313" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="20:20">
       <c r="T313" s="16"/>
     </row>
-    <row r="314" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="20:20">
       <c r="T314" s="16"/>
     </row>
-    <row r="315" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="20:20">
       <c r="T315" s="16"/>
     </row>
-    <row r="316" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="20:20">
       <c r="T316" s="16"/>
     </row>
-    <row r="317" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="20:20">
       <c r="T317" s="16"/>
     </row>
-    <row r="318" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="20:20">
       <c r="T318" s="16"/>
     </row>
-    <row r="319" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="20:20">
       <c r="T319" s="16"/>
     </row>
-    <row r="320" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="20:20">
       <c r="T320" s="16"/>
     </row>
-    <row r="321" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="20:20">
       <c r="T321" s="16"/>
     </row>
-    <row r="322" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="20:20">
       <c r="T322" s="16"/>
     </row>
-    <row r="323" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="20:20">
       <c r="T323" s="16"/>
     </row>
-    <row r="324" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="20:20">
       <c r="T324" s="16"/>
     </row>
-    <row r="325" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="20:20">
       <c r="T325" s="16"/>
     </row>
-    <row r="326" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="20:20">
       <c r="T326" s="16"/>
     </row>
-    <row r="327" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="20:20">
       <c r="T327" s="16"/>
     </row>
-    <row r="328" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="20:20">
       <c r="T328" s="16"/>
     </row>
-    <row r="329" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="20:20">
       <c r="T329" s="16"/>
     </row>
-    <row r="330" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="20:20">
       <c r="T330" s="16"/>
     </row>
-    <row r="331" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="20:20">
       <c r="T331" s="16"/>
     </row>
-    <row r="332" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="20:20">
       <c r="T332" s="16"/>
     </row>
-    <row r="333" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="20:20">
       <c r="T333" s="16"/>
     </row>
-    <row r="334" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="20:20">
       <c r="T334" s="16"/>
     </row>
-    <row r="335" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="20:20">
       <c r="T335" s="16"/>
     </row>
-    <row r="336" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="20:20">
       <c r="T336" s="16"/>
     </row>
-    <row r="337" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="20:20">
       <c r="T337" s="16"/>
     </row>
-    <row r="338" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="20:20">
       <c r="T338" s="16"/>
     </row>
-    <row r="339" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="20:20">
       <c r="T339" s="16"/>
     </row>
-    <row r="340" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="20:20">
       <c r="T340" s="16"/>
     </row>
-    <row r="341" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="20:20">
       <c r="T341" s="16"/>
     </row>
-    <row r="342" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="20:20">
       <c r="T342" s="16"/>
     </row>
-    <row r="343" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="20:20">
       <c r="T343" s="16"/>
     </row>
-    <row r="344" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="20:20">
       <c r="T344" s="16"/>
     </row>
-    <row r="345" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="20:20">
       <c r="T345" s="16"/>
     </row>
-    <row r="346" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="20:20">
       <c r="T346" s="16"/>
     </row>
-    <row r="347" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="20:20">
       <c r="T347" s="16"/>
     </row>
-    <row r="348" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="20:20">
       <c r="T348" s="16"/>
     </row>
-    <row r="349" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="20:20">
       <c r="T349" s="16"/>
     </row>
-    <row r="350" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="20:20">
       <c r="T350" s="16"/>
     </row>
-    <row r="351" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="20:20">
       <c r="T351" s="16"/>
     </row>
-    <row r="352" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="20:20">
       <c r="T352" s="16"/>
     </row>
-    <row r="353" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="20:20">
       <c r="T353" s="16"/>
     </row>
-    <row r="354" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="20:20">
       <c r="T354" s="16"/>
     </row>
-    <row r="355" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="20:20">
       <c r="T355" s="16"/>
     </row>
-    <row r="356" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="20:20">
       <c r="T356" s="16"/>
     </row>
-    <row r="357" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="20:20">
       <c r="T357" s="16"/>
     </row>
-    <row r="358" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="20:20">
       <c r="T358" s="16"/>
     </row>
-    <row r="359" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="20:20">
       <c r="T359" s="16"/>
     </row>
-    <row r="360" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="20:20">
       <c r="T360" s="16"/>
     </row>
-    <row r="361" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="20:20">
       <c r="T361" s="16"/>
     </row>
-    <row r="362" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="20:20">
       <c r="T362" s="16"/>
     </row>
-    <row r="363" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="20:20">
       <c r="T363" s="16"/>
     </row>
-    <row r="364" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="20:20">
       <c r="T364" s="16"/>
     </row>
-    <row r="365" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="20:20">
       <c r="T365" s="16"/>
     </row>
-    <row r="366" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="20:20">
       <c r="T366" s="16"/>
     </row>
-    <row r="367" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="20:20">
       <c r="T367" s="16"/>
     </row>
-    <row r="368" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="20:20">
       <c r="T368" s="16"/>
     </row>
-    <row r="369" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="20:20">
       <c r="T369" s="16"/>
     </row>
-    <row r="370" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="20:20">
       <c r="T370" s="16"/>
     </row>
-    <row r="371" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="20:20">
       <c r="T371" s="16"/>
     </row>
-    <row r="372" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="20:20">
       <c r="T372" s="16"/>
     </row>
-    <row r="373" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="20:20">
       <c r="T373" s="16"/>
     </row>
-    <row r="374" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="20:20">
       <c r="T374" s="16"/>
     </row>
-    <row r="375" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="20:20">
       <c r="T375" s="16"/>
     </row>
-    <row r="376" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="20:20">
       <c r="T376" s="16"/>
     </row>
-    <row r="377" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="20:20">
       <c r="T377" s="16"/>
     </row>
-    <row r="378" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="20:20">
       <c r="T378" s="16"/>
     </row>
-    <row r="379" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="20:20">
       <c r="T379" s="16"/>
     </row>
-    <row r="380" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="20:20">
       <c r="T380" s="16"/>
     </row>
-    <row r="381" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="20:20">
       <c r="T381" s="16"/>
     </row>
-    <row r="382" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="20:20">
       <c r="T382" s="16"/>
     </row>
-    <row r="383" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="20:20">
       <c r="T383" s="16"/>
     </row>
-    <row r="384" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="20:20">
       <c r="T384" s="16"/>
     </row>
-    <row r="385" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="20:20">
       <c r="T385" s="16"/>
     </row>
-    <row r="386" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="20:20">
       <c r="T386" s="16"/>
     </row>
-    <row r="387" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="20:20">
       <c r="T387" s="16"/>
     </row>
-    <row r="388" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="20:20">
       <c r="T388" s="16"/>
     </row>
-    <row r="389" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="20:20">
       <c r="T389" s="16"/>
     </row>
-    <row r="390" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="20:20">
       <c r="T390" s="16"/>
     </row>
-    <row r="391" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="20:20">
       <c r="T391" s="16"/>
     </row>
-    <row r="392" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="20:20">
       <c r="T392" s="16"/>
     </row>
-    <row r="393" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="20:20">
       <c r="T393" s="16"/>
     </row>
-    <row r="394" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="20:20">
       <c r="T394" s="16"/>
     </row>
-    <row r="395" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="20:20">
       <c r="T395" s="16"/>
     </row>
-    <row r="396" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="20:20">
       <c r="T396" s="16"/>
     </row>
-    <row r="397" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="20:20">
       <c r="T397" s="16"/>
     </row>
-    <row r="398" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="20:20">
       <c r="T398" s="16"/>
     </row>
-    <row r="399" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="20:20">
       <c r="T399" s="16"/>
     </row>
-    <row r="400" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="20:20">
       <c r="T400" s="16"/>
     </row>
-    <row r="401" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="20:20">
       <c r="T401" s="16"/>
     </row>
-    <row r="402" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="20:20">
       <c r="T402" s="16"/>
     </row>
-    <row r="403" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="20:20">
       <c r="T403" s="16"/>
     </row>
-    <row r="404" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="20:20">
       <c r="T404" s="16"/>
     </row>
-    <row r="405" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="20:20">
       <c r="T405" s="16"/>
     </row>
-    <row r="406" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="20:20">
       <c r="T406" s="16"/>
     </row>
-    <row r="407" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="20:20">
       <c r="T407" s="16"/>
     </row>
-    <row r="408" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="20:20">
       <c r="T408" s="16"/>
     </row>
-    <row r="409" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="20:20">
       <c r="T409" s="16"/>
     </row>
-    <row r="410" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="20:20">
       <c r="T410" s="16"/>
     </row>
-    <row r="411" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="20:20">
       <c r="T411" s="16"/>
     </row>
-    <row r="412" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="20:20">
       <c r="T412" s="16"/>
     </row>
-    <row r="413" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="20:20">
       <c r="T413" s="16"/>
     </row>
-    <row r="414" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="20:20">
       <c r="T414" s="16"/>
     </row>
-    <row r="415" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="20:20">
       <c r="T415" s="16"/>
     </row>
-    <row r="416" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="20:20">
       <c r="T416" s="16"/>
     </row>
-    <row r="417" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="20:20">
       <c r="T417" s="16"/>
     </row>
-    <row r="418" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="20:20">
       <c r="T418" s="16"/>
     </row>
-    <row r="419" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="20:20">
       <c r="T419" s="16"/>
     </row>
-    <row r="420" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="20:20">
       <c r="T420" s="16"/>
     </row>
-    <row r="421" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="20:20">
       <c r="T421" s="16"/>
     </row>
-    <row r="422" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="20:20">
       <c r="T422" s="16"/>
     </row>
-    <row r="423" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="20:20">
       <c r="T423" s="16"/>
     </row>
-    <row r="424" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="20:20">
       <c r="T424" s="16"/>
     </row>
-    <row r="425" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="20:20">
       <c r="T425" s="16"/>
     </row>
-    <row r="426" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="20:20">
       <c r="T426" s="16"/>
     </row>
-    <row r="427" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="20:20">
       <c r="T427" s="16"/>
     </row>
-    <row r="428" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="20:20">
       <c r="T428" s="16"/>
     </row>
-    <row r="429" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="20:20">
       <c r="T429" s="16"/>
     </row>
-    <row r="430" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="20:20">
       <c r="T430" s="16"/>
     </row>
-    <row r="431" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="20:20">
       <c r="T431" s="16"/>
     </row>
-    <row r="432" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="20:20">
       <c r="T432" s="16"/>
     </row>
-    <row r="433" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="20:20">
       <c r="T433" s="16"/>
     </row>
-    <row r="434" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="20:20">
       <c r="T434" s="16"/>
     </row>
-    <row r="435" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="20:20">
       <c r="T435" s="16"/>
     </row>
-    <row r="436" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="20:20">
       <c r="T436" s="16"/>
     </row>
-    <row r="437" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="20:20">
       <c r="T437" s="16"/>
     </row>
-    <row r="438" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="20:20">
       <c r="T438" s="16"/>
     </row>
-    <row r="439" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="20:20">
       <c r="T439" s="16"/>
     </row>
-    <row r="440" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="20:20">
       <c r="T440" s="16"/>
     </row>
-    <row r="441" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="20:20">
       <c r="T441" s="16"/>
     </row>
-    <row r="442" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="20:20">
       <c r="T442" s="16"/>
     </row>
-    <row r="443" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="20:20">
       <c r="T443" s="16"/>
     </row>
-    <row r="444" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="20:20">
       <c r="T444" s="16"/>
     </row>
-    <row r="445" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="20:20">
       <c r="T445" s="16"/>
     </row>
-    <row r="446" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="20:20">
       <c r="T446" s="16"/>
     </row>
-    <row r="447" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="20:20">
       <c r="T447" s="16"/>
     </row>
-    <row r="448" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="20:20">
       <c r="T448" s="16"/>
     </row>
-    <row r="449" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="20:20">
       <c r="T449" s="16"/>
     </row>
-    <row r="450" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="20:20">
       <c r="T450" s="16"/>
     </row>
-    <row r="451" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="20:20">
       <c r="T451" s="16"/>
     </row>
-    <row r="452" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="20:20">
       <c r="T452" s="16"/>
     </row>
-    <row r="453" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="20:20">
       <c r="T453" s="16"/>
     </row>
-    <row r="454" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="20:20">
       <c r="T454" s="16"/>
     </row>
-    <row r="455" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="20:20">
       <c r="T455" s="16"/>
     </row>
-    <row r="456" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="20:20">
       <c r="T456" s="16"/>
     </row>
-    <row r="457" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="20:20">
       <c r="T457" s="16"/>
     </row>
-    <row r="458" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="20:20">
       <c r="T458" s="16"/>
     </row>
-    <row r="459" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="20:20">
       <c r="T459" s="16"/>
     </row>
-    <row r="460" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="20:20">
       <c r="T460" s="16"/>
     </row>
-    <row r="461" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="20:20">
       <c r="T461" s="16"/>
     </row>
-    <row r="462" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="20:20">
       <c r="T462" s="16"/>
     </row>
-    <row r="463" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="20:20">
       <c r="T463" s="16"/>
     </row>
-    <row r="464" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="20:20">
       <c r="T464" s="16"/>
     </row>
-    <row r="465" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="20:20">
       <c r="T465" s="16"/>
     </row>
-    <row r="466" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="20:20">
       <c r="T466" s="16"/>
     </row>
-    <row r="467" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="20:20">
       <c r="T467" s="16"/>
     </row>
-    <row r="468" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="20:20">
       <c r="T468" s="16"/>
     </row>
-    <row r="469" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="20:20">
       <c r="T469" s="16"/>
     </row>
-    <row r="470" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="20:20">
       <c r="T470" s="16"/>
     </row>
-    <row r="471" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="20:20">
       <c r="T471" s="16"/>
     </row>
-    <row r="472" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="20:20">
       <c r="T472" s="16"/>
     </row>
-    <row r="473" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="20:20">
       <c r="T473" s="16"/>
     </row>
-    <row r="474" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="20:20">
       <c r="T474" s="16"/>
     </row>
-    <row r="475" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="475" spans="20:20">
       <c r="T475" s="16"/>
     </row>
-    <row r="476" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="20:20">
       <c r="T476" s="16"/>
     </row>
-    <row r="477" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="20:20">
       <c r="T477" s="16"/>
     </row>
-    <row r="478" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="20:20">
       <c r="T478" s="16"/>
     </row>
-    <row r="479" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="20:20">
       <c r="T479" s="16"/>
     </row>
-    <row r="480" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="20:20">
       <c r="T480" s="16"/>
     </row>
-    <row r="481" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="20:20">
       <c r="T481" s="16"/>
     </row>
-    <row r="482" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="20:20">
       <c r="T482" s="16"/>
     </row>
-    <row r="483" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="20:20">
       <c r="T483" s="16"/>
     </row>
-    <row r="484" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="20:20">
       <c r="T484" s="16"/>
     </row>
-    <row r="485" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="20:20">
       <c r="T485" s="16"/>
     </row>
-    <row r="486" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="20:20">
       <c r="T486" s="16"/>
     </row>
-    <row r="487" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="20:20">
       <c r="T487" s="16"/>
     </row>
-    <row r="488" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="20:20">
       <c r="T488" s="16"/>
     </row>
-    <row r="489" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="20:20">
       <c r="T489" s="16"/>
     </row>
-    <row r="490" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="20:20">
       <c r="T490" s="16"/>
     </row>
-    <row r="491" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="20:20">
       <c r="T491" s="16"/>
     </row>
-    <row r="492" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="20:20">
       <c r="T492" s="16"/>
     </row>
-    <row r="493" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="20:20">
       <c r="T493" s="16"/>
     </row>
-    <row r="494" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="20:20">
       <c r="T494" s="16"/>
     </row>
-    <row r="495" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="20:20">
       <c r="T495" s="16"/>
     </row>
-    <row r="496" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="20:20">
       <c r="T496" s="16"/>
     </row>
-    <row r="497" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="20:20">
       <c r="T497" s="16"/>
     </row>
-    <row r="498" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="20:20">
       <c r="T498" s="16"/>
     </row>
-    <row r="499" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="20:20">
       <c r="T499" s="16"/>
     </row>
-    <row r="500" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="20:20">
       <c r="T500" s="16"/>
     </row>
-    <row r="501" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="20:20">
       <c r="T501" s="16"/>
     </row>
-    <row r="502" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="20:20">
       <c r="T502" s="16"/>
     </row>
-    <row r="503" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="503" spans="20:20">
       <c r="T503" s="16"/>
     </row>
-    <row r="504" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="504" spans="20:20">
       <c r="T504" s="16"/>
     </row>
-    <row r="505" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="505" spans="20:20">
       <c r="T505" s="16"/>
     </row>
-    <row r="506" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="506" spans="20:20">
       <c r="T506" s="16"/>
     </row>
-    <row r="507" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="507" spans="20:20">
       <c r="T507" s="16"/>
     </row>
-    <row r="508" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="508" spans="20:20">
       <c r="T508" s="16"/>
     </row>
-    <row r="509" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="509" spans="20:20">
       <c r="T509" s="16"/>
     </row>
-    <row r="510" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="510" spans="20:20">
       <c r="T510" s="16"/>
     </row>
-    <row r="511" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="511" spans="20:20">
       <c r="T511" s="16"/>
     </row>
-    <row r="512" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="512" spans="20:20">
       <c r="T512" s="16"/>
     </row>
-    <row r="513" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="513" spans="20:20">
       <c r="T513" s="16"/>
     </row>
-    <row r="514" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="514" spans="20:20">
       <c r="T514" s="16"/>
     </row>
-    <row r="515" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="515" spans="20:20">
       <c r="T515" s="16"/>
     </row>
-    <row r="516" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="516" spans="20:20">
       <c r="T516" s="16"/>
     </row>
-    <row r="517" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="517" spans="20:20">
       <c r="T517" s="16"/>
     </row>
-    <row r="518" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="518" spans="20:20">
       <c r="T518" s="16"/>
     </row>
-    <row r="519" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="519" spans="20:20">
       <c r="T519" s="16"/>
     </row>
-    <row r="520" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="520" spans="20:20">
       <c r="T520" s="16"/>
     </row>
-    <row r="521" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="521" spans="20:20">
       <c r="T521" s="16"/>
     </row>
-    <row r="522" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="522" spans="20:20">
       <c r="T522" s="16"/>
     </row>
-    <row r="523" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="523" spans="20:20">
       <c r="T523" s="16"/>
     </row>
-    <row r="524" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="524" spans="20:20">
       <c r="T524" s="16"/>
     </row>
-    <row r="525" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="525" spans="20:20">
       <c r="T525" s="16"/>
     </row>
-    <row r="526" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="526" spans="20:20">
       <c r="T526" s="16"/>
     </row>
-    <row r="527" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="527" spans="20:20">
       <c r="T527" s="16"/>
     </row>
-    <row r="528" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="528" spans="20:20">
       <c r="T528" s="16"/>
     </row>
-    <row r="529" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="529" spans="20:20">
       <c r="T529" s="16"/>
     </row>
-    <row r="530" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="530" spans="20:20">
       <c r="T530" s="16"/>
     </row>
-    <row r="531" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="531" spans="20:20">
       <c r="T531" s="16"/>
     </row>
-    <row r="532" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="532" spans="20:20">
       <c r="T532" s="16"/>
     </row>
-    <row r="533" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="533" spans="20:20">
       <c r="T533" s="16"/>
     </row>
-    <row r="534" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="534" spans="20:20">
       <c r="T534" s="16"/>
     </row>
-    <row r="535" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="535" spans="20:20">
       <c r="T535" s="16"/>
     </row>
-    <row r="536" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="536" spans="20:20">
       <c r="T536" s="16"/>
     </row>
-    <row r="537" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="537" spans="20:20">
       <c r="T537" s="16"/>
     </row>
-    <row r="538" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="538" spans="20:20">
       <c r="T538" s="16"/>
     </row>
-    <row r="539" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="539" spans="20:20">
       <c r="T539" s="16"/>
     </row>
-    <row r="540" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="540" spans="20:20">
       <c r="T540" s="16"/>
     </row>
-    <row r="541" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="541" spans="20:20">
       <c r="T541" s="16"/>
     </row>
-    <row r="542" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="542" spans="20:20">
       <c r="T542" s="16"/>
     </row>
-    <row r="543" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="543" spans="20:20">
       <c r="T543" s="16"/>
     </row>
-    <row r="544" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="544" spans="20:20">
       <c r="T544" s="16"/>
     </row>
-    <row r="545" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="545" spans="20:20">
       <c r="T545" s="16"/>
     </row>
-    <row r="546" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="546" spans="20:20">
       <c r="T546" s="16"/>
     </row>
-    <row r="547" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="547" spans="20:20">
       <c r="T547" s="16"/>
     </row>
-    <row r="548" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="548" spans="20:20">
       <c r="T548" s="16"/>
     </row>
-    <row r="549" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="549" spans="20:20">
       <c r="T549" s="16"/>
     </row>
-    <row r="550" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="550" spans="20:20">
       <c r="T550" s="16"/>
     </row>
-    <row r="551" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="551" spans="20:20">
       <c r="T551" s="16"/>
     </row>
   </sheetData>
@@ -5344,7 +5344,7 @@
       <selection pane="bottomLeft" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -5361,7 +5361,7 @@
     <col min="45" max="45" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="40.5" customHeight="1">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -5402,93 +5402,93 @@
       <c r="AL1" s="86"/>
       <c r="AM1" s="86"/>
     </row>
-    <row r="2" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+    <row r="2" spans="1:46" ht="30" customHeight="1">
+      <c r="A2" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143"/>
-    </row>
-    <row r="3" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="106"/>
+      <c r="AM2" s="106"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1">
+      <c r="A3" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143"/>
-      <c r="AM3" s="143"/>
-    </row>
-    <row r="4" spans="1:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
+    </row>
+    <row r="4" spans="1:46" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -5524,67 +5524,67 @@
       <c r="AG4" s="24"/>
       <c r="AH4" s="24"/>
       <c r="AI4" s="24"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-    </row>
-    <row r="5" spans="1:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+    </row>
+    <row r="5" spans="1:46" ht="18" customHeight="1" thickBot="1">
+      <c r="A5" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="145" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="152"/>
-      <c r="N5" s="152"/>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="152"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="152"/>
-      <c r="AH5" s="152"/>
-      <c r="AI5" s="153"/>
-      <c r="AJ5" s="145" t="s">
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="AK5" s="145"/>
-      <c r="AL5" s="145"/>
-      <c r="AM5" s="145"/>
-    </row>
-    <row r="6" spans="1:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="146"/>
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="108"/>
+    </row>
+    <row r="6" spans="1:46" ht="18" customHeight="1" thickBot="1">
+      <c r="A6" s="109"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="26">
         <v>1</v>
       </c>
@@ -5678,12 +5678,12 @@
       <c r="AI6" s="26">
         <v>31</v>
       </c>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="146"/>
-      <c r="AM6" s="146"/>
-    </row>
-    <row r="7" spans="1:46" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="109"/>
+      <c r="AL6" s="109"/>
+      <c r="AM6" s="109"/>
+    </row>
+    <row r="7" spans="1:46" ht="9.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -5724,54 +5724,54 @@
       <c r="AL7" s="28"/>
       <c r="AM7" s="29"/>
     </row>
-    <row r="8" spans="1:46" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126" t="s">
+    <row r="8" spans="1:46" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A8" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="127"/>
-      <c r="AI8" s="127"/>
-      <c r="AJ8" s="127"/>
-      <c r="AK8" s="127"/>
-      <c r="AL8" s="127"/>
-      <c r="AM8" s="128"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="99"/>
       <c r="AO8" s="79"/>
       <c r="AP8" s="79"/>
       <c r="AQ8" s="79"/>
       <c r="AR8" s="79"/>
     </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="15" customHeight="1">
       <c r="A9" s="30">
         <v>1</v>
       </c>
@@ -5906,12 +5906,12 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ9" s="129" t="e">
+      <c r="AJ9" s="100" t="e">
         <f t="shared" ref="AJ9:AJ55" si="0">SUM(E9:AI9)</f>
         <v>#REF!</v>
       </c>
-      <c r="AK9" s="130"/>
-      <c r="AL9" s="131"/>
+      <c r="AK9" s="101"/>
+      <c r="AL9" s="102"/>
       <c r="AM9" s="33" t="s">
         <v>32</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="AS9" s="81"/>
       <c r="AT9" s="81"/>
     </row>
-    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="15" customHeight="1">
       <c r="A10" s="34">
         <f t="shared" ref="A10:A55" si="1">A9+1</f>
         <v>2</v>
@@ -6065,12 +6065,12 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ10" s="132" t="e">
+      <c r="AJ10" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK10" s="133"/>
-      <c r="AL10" s="134"/>
+      <c r="AK10" s="104"/>
+      <c r="AL10" s="105"/>
       <c r="AM10" s="37" t="s">
         <v>32</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="AS10" s="81"/>
       <c r="AT10" s="81"/>
     </row>
-    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="15" customHeight="1">
       <c r="A11" s="34">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -6214,12 +6214,12 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ11" s="132" t="e">
+      <c r="AJ11" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK11" s="133"/>
-      <c r="AL11" s="134"/>
+      <c r="AK11" s="104"/>
+      <c r="AL11" s="105"/>
       <c r="AM11" s="37" t="s">
         <v>50</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="AS11" s="82"/>
       <c r="AT11" s="81"/>
     </row>
-    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="15" customHeight="1">
       <c r="A12" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6366,19 +6366,19 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ12" s="132" t="e">
+      <c r="AJ12" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK12" s="133"/>
-      <c r="AL12" s="134"/>
+      <c r="AK12" s="104"/>
+      <c r="AL12" s="105"/>
       <c r="AM12" s="37" t="s">
         <v>32</v>
       </c>
       <c r="AS12" s="81"/>
       <c r="AT12" s="81"/>
     </row>
-    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="15" customHeight="1">
       <c r="A13" s="34">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6514,19 +6514,19 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ13" s="132" t="e">
+      <c r="AJ13" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK13" s="133"/>
-      <c r="AL13" s="134"/>
+      <c r="AK13" s="104"/>
+      <c r="AL13" s="105"/>
       <c r="AM13" s="37" t="s">
         <v>50</v>
       </c>
       <c r="AS13" s="81"/>
       <c r="AT13" s="81"/>
     </row>
-    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="15" customHeight="1">
       <c r="A14" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6662,12 +6662,12 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ14" s="132" t="e">
+      <c r="AJ14" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK14" s="133"/>
-      <c r="AL14" s="134"/>
+      <c r="AK14" s="104"/>
+      <c r="AL14" s="105"/>
       <c r="AM14" s="37" t="s">
         <v>50</v>
       </c>
@@ -6678,7 +6678,7 @@
       <c r="AS14" s="81"/>
       <c r="AT14" s="81"/>
     </row>
-    <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="15" customHeight="1">
       <c r="A15" s="34">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6814,12 +6814,12 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ15" s="132" t="e">
+      <c r="AJ15" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK15" s="133"/>
-      <c r="AL15" s="134"/>
+      <c r="AK15" s="104"/>
+      <c r="AL15" s="105"/>
       <c r="AM15" s="37" t="s">
         <v>50</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="AS15" s="81"/>
       <c r="AT15" s="81"/>
     </row>
-    <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="15" customHeight="1">
       <c r="A16" s="34">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6966,12 +6966,12 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ16" s="132" t="e">
+      <c r="AJ16" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK16" s="133"/>
-      <c r="AL16" s="134"/>
+      <c r="AK16" s="104"/>
+      <c r="AL16" s="105"/>
       <c r="AM16" s="37" t="s">
         <v>50</v>
       </c>
@@ -6982,7 +6982,7 @@
       <c r="AS16" s="81"/>
       <c r="AT16" s="81"/>
     </row>
-    <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="15" customHeight="1">
       <c r="A17" s="34">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7118,12 +7118,12 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ17" s="132" t="e">
+      <c r="AJ17" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK17" s="133"/>
-      <c r="AL17" s="134"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="105"/>
       <c r="AM17" s="37" t="s">
         <v>32</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="AS17" s="81"/>
       <c r="AT17" s="81"/>
     </row>
-    <row r="18" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="15" customHeight="1">
       <c r="A18" s="34">
         <v>10</v>
       </c>
@@ -7269,17 +7269,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ18" s="132" t="e">
+      <c r="AJ18" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK18" s="133"/>
-      <c r="AL18" s="134"/>
+      <c r="AK18" s="104"/>
+      <c r="AL18" s="105"/>
       <c r="AM18" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="15" customHeight="1">
       <c r="A19" s="34">
         <v>11</v>
       </c>
@@ -7414,17 +7414,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ19" s="132" t="e">
+      <c r="AJ19" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK19" s="133"/>
-      <c r="AL19" s="134"/>
+      <c r="AK19" s="104"/>
+      <c r="AL19" s="105"/>
       <c r="AM19" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="15" customHeight="1">
       <c r="A20" s="34">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7560,17 +7560,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ20" s="132" t="e">
+      <c r="AJ20" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK20" s="133"/>
-      <c r="AL20" s="134"/>
+      <c r="AK20" s="104"/>
+      <c r="AL20" s="105"/>
       <c r="AM20" s="37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="15" customHeight="1">
       <c r="A21" s="34">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7706,17 +7706,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ21" s="132" t="e">
+      <c r="AJ21" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK21" s="133"/>
-      <c r="AL21" s="134"/>
+      <c r="AK21" s="104"/>
+      <c r="AL21" s="105"/>
       <c r="AM21" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="15" customHeight="1">
       <c r="A22" s="34">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7852,17 +7852,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ22" s="132" t="e">
+      <c r="AJ22" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK22" s="133"/>
-      <c r="AL22" s="134"/>
+      <c r="AK22" s="104"/>
+      <c r="AL22" s="105"/>
       <c r="AM22" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="15" customHeight="1">
       <c r="A23" s="34">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7998,17 +7998,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ23" s="132" t="e">
+      <c r="AJ23" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK23" s="133"/>
-      <c r="AL23" s="134"/>
+      <c r="AK23" s="104"/>
+      <c r="AL23" s="105"/>
       <c r="AM23" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="15" customHeight="1">
       <c r="A24" s="34">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -8144,17 +8144,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ24" s="132" t="e">
+      <c r="AJ24" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK24" s="133"/>
-      <c r="AL24" s="134"/>
+      <c r="AK24" s="104"/>
+      <c r="AL24" s="105"/>
       <c r="AM24" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="15" customHeight="1">
       <c r="A25" s="34">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -8290,17 +8290,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ25" s="132" t="e">
+      <c r="AJ25" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK25" s="133"/>
-      <c r="AL25" s="134"/>
+      <c r="AK25" s="104"/>
+      <c r="AL25" s="105"/>
       <c r="AM25" s="37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="15" customHeight="1">
       <c r="A26" s="34">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -8436,17 +8436,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ26" s="132" t="e">
+      <c r="AJ26" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK26" s="133"/>
-      <c r="AL26" s="134"/>
+      <c r="AK26" s="104"/>
+      <c r="AL26" s="105"/>
       <c r="AM26" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="15" customHeight="1">
       <c r="A27" s="34">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -8582,17 +8582,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ27" s="132" t="e">
+      <c r="AJ27" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK27" s="133"/>
-      <c r="AL27" s="134"/>
+      <c r="AK27" s="104"/>
+      <c r="AL27" s="105"/>
       <c r="AM27" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="15" customHeight="1">
       <c r="A28" s="34">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -8728,17 +8728,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ28" s="132" t="e">
+      <c r="AJ28" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK28" s="133"/>
-      <c r="AL28" s="134"/>
+      <c r="AK28" s="104"/>
+      <c r="AL28" s="105"/>
       <c r="AM28" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="38">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -8874,62 +8874,62 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ29" s="123" t="e">
+      <c r="AJ29" s="117" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK29" s="124"/>
-      <c r="AL29" s="125"/>
+      <c r="AK29" s="118"/>
+      <c r="AL29" s="119"/>
       <c r="AM29" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="137"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="138"/>
-      <c r="P30" s="138"/>
-      <c r="Q30" s="138"/>
-      <c r="R30" s="138"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="138"/>
-      <c r="U30" s="138"/>
-      <c r="V30" s="138"/>
-      <c r="W30" s="138"/>
-      <c r="X30" s="138"/>
-      <c r="Y30" s="138"/>
-      <c r="Z30" s="138"/>
-      <c r="AA30" s="138"/>
-      <c r="AB30" s="138"/>
-      <c r="AC30" s="138"/>
-      <c r="AD30" s="138"/>
-      <c r="AE30" s="138"/>
-      <c r="AF30" s="138"/>
-      <c r="AG30" s="138"/>
-      <c r="AH30" s="138"/>
-      <c r="AI30" s="138"/>
-      <c r="AJ30" s="138"/>
-      <c r="AK30" s="138"/>
-      <c r="AL30" s="138"/>
-      <c r="AM30" s="139"/>
-    </row>
-    <row r="31" spans="1:46" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="126" t="s">
+    <row r="30" spans="1:46" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A30" s="120"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="121"/>
+      <c r="AD30" s="121"/>
+      <c r="AE30" s="121"/>
+      <c r="AF30" s="121"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="121"/>
+      <c r="AJ30" s="121"/>
+      <c r="AK30" s="121"/>
+      <c r="AL30" s="121"/>
+      <c r="AM30" s="122"/>
+    </row>
+    <row r="31" spans="1:46" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A31" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="127"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
       <c r="E31" s="42"/>
@@ -8968,7 +8968,7 @@
       <c r="AL31" s="42"/>
       <c r="AM31" s="43"/>
     </row>
-    <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="15" customHeight="1">
       <c r="A32" s="30">
         <v>1</v>
       </c>
@@ -9103,17 +9103,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ32" s="129" t="e">
+      <c r="AJ32" s="100" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK32" s="130"/>
-      <c r="AL32" s="131"/>
+      <c r="AK32" s="101"/>
+      <c r="AL32" s="102"/>
       <c r="AM32" s="33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="15" customHeight="1">
       <c r="A33" s="34">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -9249,17 +9249,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ33" s="132" t="e">
+      <c r="AJ33" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK33" s="133"/>
-      <c r="AL33" s="134"/>
+      <c r="AK33" s="104"/>
+      <c r="AL33" s="105"/>
       <c r="AM33" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="15" customHeight="1">
       <c r="A34" s="34">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -9395,17 +9395,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ34" s="132" t="e">
+      <c r="AJ34" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK34" s="133"/>
-      <c r="AL34" s="134"/>
+      <c r="AK34" s="104"/>
+      <c r="AL34" s="105"/>
       <c r="AM34" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="15" customHeight="1">
       <c r="A35" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9541,17 +9541,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ35" s="132" t="e">
+      <c r="AJ35" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK35" s="133"/>
-      <c r="AL35" s="134"/>
+      <c r="AK35" s="104"/>
+      <c r="AL35" s="105"/>
       <c r="AM35" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="15" customHeight="1">
       <c r="A36" s="34">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9687,17 +9687,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ36" s="132" t="e">
+      <c r="AJ36" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK36" s="133"/>
-      <c r="AL36" s="134"/>
+      <c r="AK36" s="104"/>
+      <c r="AL36" s="105"/>
       <c r="AM36" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="15" customHeight="1">
       <c r="A37" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9833,17 +9833,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ37" s="132" t="e">
+      <c r="AJ37" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK37" s="133"/>
-      <c r="AL37" s="134"/>
+      <c r="AK37" s="104"/>
+      <c r="AL37" s="105"/>
       <c r="AM37" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15" customHeight="1">
       <c r="A38" s="34">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9979,17 +9979,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ38" s="132" t="e">
+      <c r="AJ38" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK38" s="133"/>
-      <c r="AL38" s="134"/>
+      <c r="AK38" s="104"/>
+      <c r="AL38" s="105"/>
       <c r="AM38" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15" customHeight="1">
       <c r="A39" s="34">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -10125,17 +10125,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ39" s="132" t="e">
+      <c r="AJ39" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK39" s="133"/>
-      <c r="AL39" s="134"/>
+      <c r="AK39" s="104"/>
+      <c r="AL39" s="105"/>
       <c r="AM39" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="15" customHeight="1">
       <c r="A40" s="34">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -10271,17 +10271,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ40" s="132" t="e">
+      <c r="AJ40" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK40" s="133"/>
-      <c r="AL40" s="134"/>
+      <c r="AK40" s="104"/>
+      <c r="AL40" s="105"/>
       <c r="AM40" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="15" customHeight="1">
       <c r="A41" s="34">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -10417,17 +10417,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ41" s="132" t="e">
+      <c r="AJ41" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK41" s="133"/>
-      <c r="AL41" s="134"/>
+      <c r="AK41" s="104"/>
+      <c r="AL41" s="105"/>
       <c r="AM41" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="38">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -10563,101 +10563,101 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ42" s="140" t="e">
+      <c r="AJ42" s="123" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK42" s="141"/>
-      <c r="AL42" s="142"/>
+      <c r="AK42" s="124"/>
+      <c r="AL42" s="125"/>
       <c r="AM42" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="137"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="138"/>
-      <c r="P43" s="138"/>
-      <c r="Q43" s="138"/>
-      <c r="R43" s="138"/>
-      <c r="S43" s="138"/>
-      <c r="T43" s="138"/>
-      <c r="U43" s="138"/>
-      <c r="V43" s="138"/>
-      <c r="W43" s="138"/>
-      <c r="X43" s="138"/>
-      <c r="Y43" s="138"/>
-      <c r="Z43" s="138"/>
-      <c r="AA43" s="138"/>
-      <c r="AB43" s="138"/>
-      <c r="AC43" s="138"/>
-      <c r="AD43" s="138"/>
-      <c r="AE43" s="138"/>
-      <c r="AF43" s="138"/>
-      <c r="AG43" s="138"/>
-      <c r="AH43" s="138"/>
-      <c r="AI43" s="138"/>
-      <c r="AJ43" s="138"/>
-      <c r="AK43" s="138"/>
-      <c r="AL43" s="138"/>
-      <c r="AM43" s="139"/>
-    </row>
-    <row r="44" spans="1:39" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="126" t="s">
+    <row r="43" spans="1:39" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A43" s="120"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="121"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="121"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="121"/>
+      <c r="U43" s="121"/>
+      <c r="V43" s="121"/>
+      <c r="W43" s="121"/>
+      <c r="X43" s="121"/>
+      <c r="Y43" s="121"/>
+      <c r="Z43" s="121"/>
+      <c r="AA43" s="121"/>
+      <c r="AB43" s="121"/>
+      <c r="AC43" s="121"/>
+      <c r="AD43" s="121"/>
+      <c r="AE43" s="121"/>
+      <c r="AF43" s="121"/>
+      <c r="AG43" s="121"/>
+      <c r="AH43" s="121"/>
+      <c r="AI43" s="121"/>
+      <c r="AJ43" s="121"/>
+      <c r="AK43" s="121"/>
+      <c r="AL43" s="121"/>
+      <c r="AM43" s="122"/>
+    </row>
+    <row r="44" spans="1:39" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A44" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="127"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="127"/>
-      <c r="N44" s="127"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="127"/>
-      <c r="Q44" s="127"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="127"/>
-      <c r="T44" s="127"/>
-      <c r="U44" s="127"/>
-      <c r="V44" s="127"/>
-      <c r="W44" s="127"/>
-      <c r="X44" s="127"/>
-      <c r="Y44" s="127"/>
-      <c r="Z44" s="127"/>
-      <c r="AA44" s="127"/>
-      <c r="AB44" s="127"/>
-      <c r="AC44" s="127"/>
-      <c r="AD44" s="127"/>
-      <c r="AE44" s="127"/>
-      <c r="AF44" s="127"/>
-      <c r="AG44" s="127"/>
-      <c r="AH44" s="127"/>
-      <c r="AI44" s="127"/>
-      <c r="AJ44" s="127"/>
-      <c r="AK44" s="127"/>
-      <c r="AL44" s="127"/>
-      <c r="AM44" s="128"/>
-    </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="98"/>
+      <c r="Q44" s="98"/>
+      <c r="R44" s="98"/>
+      <c r="S44" s="98"/>
+      <c r="T44" s="98"/>
+      <c r="U44" s="98"/>
+      <c r="V44" s="98"/>
+      <c r="W44" s="98"/>
+      <c r="X44" s="98"/>
+      <c r="Y44" s="98"/>
+      <c r="Z44" s="98"/>
+      <c r="AA44" s="98"/>
+      <c r="AB44" s="98"/>
+      <c r="AC44" s="98"/>
+      <c r="AD44" s="98"/>
+      <c r="AE44" s="98"/>
+      <c r="AF44" s="98"/>
+      <c r="AG44" s="98"/>
+      <c r="AH44" s="98"/>
+      <c r="AI44" s="98"/>
+      <c r="AJ44" s="98"/>
+      <c r="AK44" s="98"/>
+      <c r="AL44" s="98"/>
+      <c r="AM44" s="99"/>
+    </row>
+    <row r="45" spans="1:39" ht="15" customHeight="1">
       <c r="A45" s="30">
         <v>1</v>
       </c>
@@ -10792,17 +10792,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ45" s="129" t="e">
+      <c r="AJ45" s="100" t="e">
         <f>SUM(E45:AI45)</f>
         <v>#REF!</v>
       </c>
-      <c r="AK45" s="130"/>
-      <c r="AL45" s="131"/>
+      <c r="AK45" s="101"/>
+      <c r="AL45" s="102"/>
       <c r="AM45" s="33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="15" customHeight="1">
       <c r="A46" s="34">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -10938,17 +10938,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ46" s="132" t="e">
+      <c r="AJ46" s="103" t="e">
         <f>SUM(E46:AI46)</f>
         <v>#REF!</v>
       </c>
-      <c r="AK46" s="133"/>
-      <c r="AL46" s="134"/>
+      <c r="AK46" s="104"/>
+      <c r="AL46" s="105"/>
       <c r="AM46" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="15" customHeight="1">
       <c r="A47" s="34">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11084,25 +11084,25 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ47" s="132" t="e">
+      <c r="AJ47" s="103" t="e">
         <f>SUM(E47:AI47)</f>
         <v>#REF!</v>
       </c>
-      <c r="AK47" s="133"/>
-      <c r="AL47" s="134"/>
+      <c r="AK47" s="104"/>
+      <c r="AL47" s="105"/>
       <c r="AM47" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="15" customHeight="1">
       <c r="A48" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B48" s="135" t="s">
+      <c r="B48" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="136"/>
+      <c r="C48" s="127"/>
       <c r="D48" s="34" t="s">
         <v>50</v>
       </c>
@@ -11230,17 +11230,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ48" s="132" t="e">
+      <c r="AJ48" s="103" t="e">
         <f>SUM(E48:AI48)</f>
         <v>#REF!</v>
       </c>
-      <c r="AK48" s="133"/>
-      <c r="AL48" s="134"/>
+      <c r="AK48" s="104"/>
+      <c r="AL48" s="105"/>
       <c r="AM48" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="15" customHeight="1">
       <c r="A49" s="34">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -11376,17 +11376,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ49" s="132" t="e">
+      <c r="AJ49" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK49" s="133"/>
-      <c r="AL49" s="134"/>
+      <c r="AK49" s="104"/>
+      <c r="AL49" s="105"/>
       <c r="AM49" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="15" customHeight="1">
       <c r="A50" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -11522,17 +11522,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ50" s="132" t="e">
+      <c r="AJ50" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK50" s="133"/>
-      <c r="AL50" s="134"/>
+      <c r="AK50" s="104"/>
+      <c r="AL50" s="105"/>
       <c r="AM50" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="15" customHeight="1">
       <c r="A51" s="34">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -11668,17 +11668,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ51" s="132" t="e">
+      <c r="AJ51" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK51" s="133"/>
-      <c r="AL51" s="134"/>
+      <c r="AK51" s="104"/>
+      <c r="AL51" s="105"/>
       <c r="AM51" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15" customHeight="1">
       <c r="A52" s="34">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -11814,17 +11814,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ52" s="132" t="e">
+      <c r="AJ52" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK52" s="133"/>
-      <c r="AL52" s="134"/>
+      <c r="AK52" s="104"/>
+      <c r="AL52" s="105"/>
       <c r="AM52" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="15" customHeight="1">
       <c r="A53" s="34">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -11960,17 +11960,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ53" s="132" t="e">
+      <c r="AJ53" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK53" s="133"/>
-      <c r="AL53" s="134"/>
+      <c r="AK53" s="104"/>
+      <c r="AL53" s="105"/>
       <c r="AM53" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="15" customHeight="1">
       <c r="A54" s="34">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -12106,17 +12106,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ54" s="132" t="e">
+      <c r="AJ54" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK54" s="133"/>
-      <c r="AL54" s="134"/>
+      <c r="AK54" s="104"/>
+      <c r="AL54" s="105"/>
       <c r="AM54" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A55" s="38">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -12252,17 +12252,17 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ55" s="123" t="e">
+      <c r="AJ55" s="117" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="AK55" s="124"/>
-      <c r="AL55" s="125"/>
+      <c r="AK55" s="118"/>
+      <c r="AL55" s="119"/>
       <c r="AM55" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:39" ht="21" customHeight="1" thickBot="1">
       <c r="A56" s="49"/>
       <c r="B56" s="50"/>
       <c r="C56" s="50"/>
@@ -12303,7 +12303,7 @@
       <c r="AL56" s="54"/>
       <c r="AM56" s="52"/>
     </row>
-    <row r="57" spans="1:39" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" ht="24.95" customHeight="1" thickBot="1">
       <c r="A57" s="50"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -12328,25 +12328,25 @@
       <c r="V57" s="56"/>
       <c r="W57" s="56"/>
       <c r="X57" s="62"/>
-      <c r="Y57" s="112" t="s">
+      <c r="Y57" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="Z57" s="113"/>
-      <c r="AA57" s="113"/>
-      <c r="AB57" s="113"/>
-      <c r="AC57" s="113"/>
-      <c r="AD57" s="113"/>
-      <c r="AE57" s="113"/>
-      <c r="AF57" s="113"/>
-      <c r="AG57" s="113"/>
-      <c r="AH57" s="113"/>
-      <c r="AI57" s="113"/>
-      <c r="AJ57" s="113"/>
-      <c r="AK57" s="113"/>
-      <c r="AL57" s="113"/>
-      <c r="AM57" s="114"/>
-    </row>
-    <row r="58" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z57" s="129"/>
+      <c r="AA57" s="129"/>
+      <c r="AB57" s="129"/>
+      <c r="AC57" s="129"/>
+      <c r="AD57" s="129"/>
+      <c r="AE57" s="129"/>
+      <c r="AF57" s="129"/>
+      <c r="AG57" s="129"/>
+      <c r="AH57" s="129"/>
+      <c r="AI57" s="129"/>
+      <c r="AJ57" s="129"/>
+      <c r="AK57" s="129"/>
+      <c r="AL57" s="129"/>
+      <c r="AM57" s="130"/>
+    </row>
+    <row r="58" spans="1:39" ht="30" customHeight="1">
       <c r="A58" s="50"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -12371,25 +12371,25 @@
       <c r="V58" s="56"/>
       <c r="W58" s="56"/>
       <c r="X58" s="61"/>
-      <c r="Y58" s="120" t="s">
+      <c r="Y58" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="Z58" s="121"/>
-      <c r="AA58" s="122"/>
-      <c r="AB58" s="117"/>
-      <c r="AC58" s="118"/>
-      <c r="AD58" s="118"/>
-      <c r="AE58" s="118"/>
-      <c r="AF58" s="118"/>
-      <c r="AG58" s="119"/>
+      <c r="Z58" s="142"/>
+      <c r="AA58" s="143"/>
+      <c r="AB58" s="135"/>
+      <c r="AC58" s="136"/>
+      <c r="AD58" s="136"/>
+      <c r="AE58" s="136"/>
+      <c r="AF58" s="136"/>
+      <c r="AG58" s="137"/>
       <c r="AH58" s="60"/>
       <c r="AI58" s="60"/>
-      <c r="AJ58" s="115"/>
-      <c r="AK58" s="115"/>
-      <c r="AL58" s="115"/>
-      <c r="AM58" s="116"/>
-    </row>
-    <row r="59" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ58" s="131"/>
+      <c r="AK58" s="131"/>
+      <c r="AL58" s="131"/>
+      <c r="AM58" s="132"/>
+    </row>
+    <row r="59" spans="1:39" ht="30" customHeight="1">
       <c r="A59" s="50"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -12414,25 +12414,25 @@
       <c r="V59" s="56"/>
       <c r="W59" s="56"/>
       <c r="X59" s="61"/>
-      <c r="Y59" s="97" t="s">
+      <c r="Y59" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="Z59" s="98"/>
-      <c r="AA59" s="99"/>
-      <c r="AB59" s="105"/>
-      <c r="AC59" s="106"/>
-      <c r="AD59" s="106"/>
-      <c r="AE59" s="106"/>
-      <c r="AF59" s="106"/>
-      <c r="AG59" s="107"/>
+      <c r="Z59" s="145"/>
+      <c r="AA59" s="146"/>
+      <c r="AB59" s="138"/>
+      <c r="AC59" s="139"/>
+      <c r="AD59" s="139"/>
+      <c r="AE59" s="139"/>
+      <c r="AF59" s="139"/>
+      <c r="AG59" s="140"/>
       <c r="AH59" s="59"/>
       <c r="AI59" s="59"/>
-      <c r="AJ59" s="103"/>
-      <c r="AK59" s="103"/>
-      <c r="AL59" s="103"/>
-      <c r="AM59" s="104"/>
-    </row>
-    <row r="60" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ59" s="133"/>
+      <c r="AK59" s="133"/>
+      <c r="AL59" s="133"/>
+      <c r="AM59" s="134"/>
+    </row>
+    <row r="60" spans="1:39" ht="30" customHeight="1">
       <c r="A60" s="50"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -12457,25 +12457,25 @@
       <c r="V60" s="56"/>
       <c r="W60" s="56"/>
       <c r="X60" s="61"/>
-      <c r="Y60" s="97" t="s">
+      <c r="Y60" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="Z60" s="98"/>
-      <c r="AA60" s="99"/>
-      <c r="AB60" s="105"/>
-      <c r="AC60" s="106"/>
-      <c r="AD60" s="106"/>
-      <c r="AE60" s="106"/>
-      <c r="AF60" s="106"/>
-      <c r="AG60" s="107"/>
+      <c r="Z60" s="145"/>
+      <c r="AA60" s="146"/>
+      <c r="AB60" s="138"/>
+      <c r="AC60" s="139"/>
+      <c r="AD60" s="139"/>
+      <c r="AE60" s="139"/>
+      <c r="AF60" s="139"/>
+      <c r="AG60" s="140"/>
       <c r="AH60" s="59"/>
       <c r="AI60" s="59"/>
-      <c r="AJ60" s="103"/>
-      <c r="AK60" s="103"/>
-      <c r="AL60" s="103"/>
-      <c r="AM60" s="104"/>
-    </row>
-    <row r="61" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ60" s="133"/>
+      <c r="AK60" s="133"/>
+      <c r="AL60" s="133"/>
+      <c r="AM60" s="134"/>
+    </row>
+    <row r="61" spans="1:39" ht="30" customHeight="1">
       <c r="A61" s="50"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -12500,25 +12500,25 @@
       <c r="V61" s="56"/>
       <c r="W61" s="56"/>
       <c r="X61" s="61"/>
-      <c r="Y61" s="97" t="s">
+      <c r="Y61" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="Z61" s="98"/>
-      <c r="AA61" s="99"/>
-      <c r="AB61" s="105"/>
-      <c r="AC61" s="106"/>
-      <c r="AD61" s="106"/>
-      <c r="AE61" s="106"/>
-      <c r="AF61" s="106"/>
-      <c r="AG61" s="107"/>
+      <c r="Z61" s="145"/>
+      <c r="AA61" s="146"/>
+      <c r="AB61" s="138"/>
+      <c r="AC61" s="139"/>
+      <c r="AD61" s="139"/>
+      <c r="AE61" s="139"/>
+      <c r="AF61" s="139"/>
+      <c r="AG61" s="140"/>
       <c r="AH61" s="59"/>
       <c r="AI61" s="59"/>
-      <c r="AJ61" s="103"/>
-      <c r="AK61" s="103"/>
-      <c r="AL61" s="103"/>
-      <c r="AM61" s="104"/>
-    </row>
-    <row r="62" spans="1:39" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ61" s="133"/>
+      <c r="AK61" s="133"/>
+      <c r="AL61" s="133"/>
+      <c r="AM61" s="134"/>
+    </row>
+    <row r="62" spans="1:39" ht="30" customHeight="1" thickBot="1">
       <c r="A62" s="50"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -12543,47 +12543,71 @@
       <c r="V62" s="56"/>
       <c r="W62" s="56"/>
       <c r="X62" s="61"/>
-      <c r="Y62" s="109" t="s">
+      <c r="Y62" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="Z62" s="110"/>
-      <c r="AA62" s="111"/>
-      <c r="AB62" s="100" t="s">
+      <c r="Z62" s="152"/>
+      <c r="AA62" s="153"/>
+      <c r="AB62" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="AC62" s="101"/>
-      <c r="AD62" s="101"/>
-      <c r="AE62" s="101"/>
-      <c r="AF62" s="101"/>
-      <c r="AG62" s="108"/>
-      <c r="AH62" s="100" t="s">
+      <c r="AC62" s="148"/>
+      <c r="AD62" s="148"/>
+      <c r="AE62" s="148"/>
+      <c r="AF62" s="148"/>
+      <c r="AG62" s="150"/>
+      <c r="AH62" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="AI62" s="101"/>
-      <c r="AJ62" s="101"/>
-      <c r="AK62" s="101"/>
-      <c r="AL62" s="101"/>
-      <c r="AM62" s="102"/>
+      <c r="AI62" s="148"/>
+      <c r="AJ62" s="148"/>
+      <c r="AK62" s="148"/>
+      <c r="AL62" s="148"/>
+      <c r="AM62" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A8:AM8"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:AI5"/>
-    <mergeCell ref="AJ5:AM6"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AH62:AM62"/>
+    <mergeCell ref="AJ60:AM60"/>
+    <mergeCell ref="AJ61:AM61"/>
+    <mergeCell ref="AB60:AG60"/>
+    <mergeCell ref="AB61:AG61"/>
+    <mergeCell ref="AB62:AG62"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y57:AM57"/>
+    <mergeCell ref="AJ58:AM58"/>
+    <mergeCell ref="AJ59:AM59"/>
+    <mergeCell ref="AB58:AG58"/>
+    <mergeCell ref="AB59:AG59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="AJ55:AL55"/>
+    <mergeCell ref="A44:AM44"/>
+    <mergeCell ref="AJ45:AL45"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AJ47:AL47"/>
+    <mergeCell ref="AJ48:AL48"/>
+    <mergeCell ref="AJ49:AL49"/>
+    <mergeCell ref="AJ50:AL50"/>
+    <mergeCell ref="AJ51:AL51"/>
+    <mergeCell ref="AJ52:AL52"/>
+    <mergeCell ref="AJ53:AL53"/>
+    <mergeCell ref="AJ54:AL54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A43:AM43"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AJ36:AL36"/>
+    <mergeCell ref="AJ37:AL37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ39:AL39"/>
+    <mergeCell ref="AJ40:AL40"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AJ42:AL42"/>
     <mergeCell ref="AJ17:AL17"/>
     <mergeCell ref="AJ18:AL18"/>
     <mergeCell ref="A31:B31"/>
@@ -12599,47 +12623,23 @@
     <mergeCell ref="AJ29:AL29"/>
     <mergeCell ref="A30:AM30"/>
     <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="A43:AM43"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AJ34:AL34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AJ36:AL36"/>
-    <mergeCell ref="AJ37:AL37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ39:AL39"/>
-    <mergeCell ref="AJ40:AL40"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AJ42:AL42"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="A44:AM44"/>
-    <mergeCell ref="AJ45:AL45"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AJ47:AL47"/>
-    <mergeCell ref="AJ48:AL48"/>
-    <mergeCell ref="AJ49:AL49"/>
-    <mergeCell ref="AJ50:AL50"/>
-    <mergeCell ref="AJ51:AL51"/>
-    <mergeCell ref="AJ52:AL52"/>
-    <mergeCell ref="AJ53:AL53"/>
-    <mergeCell ref="AJ54:AL54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="Y57:AM57"/>
-    <mergeCell ref="AJ58:AM58"/>
-    <mergeCell ref="AJ59:AM59"/>
-    <mergeCell ref="AB58:AG58"/>
-    <mergeCell ref="AB59:AG59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="AH62:AM62"/>
-    <mergeCell ref="AJ60:AM60"/>
-    <mergeCell ref="AJ61:AM61"/>
-    <mergeCell ref="AB60:AG60"/>
-    <mergeCell ref="AB61:AG61"/>
-    <mergeCell ref="AB62:AG62"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="A8:AM8"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:AI5"/>
+    <mergeCell ref="AJ5:AM6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="7.8740157480315001E-2" top="0" bottom="0" header="0.3" footer="0.3"/>
